--- a/NOAKA_DEXPI_IssueList.xlsx
+++ b/NOAKA_DEXPI_IssueList.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NOAKADEXPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TestPackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B422EB-EA19-4FA6-8F38-C0B2E8002541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E76783-F801-473E-82C8-2C20BAFF45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
-    <definedName name="_Ref98503388" localSheetId="0">Sheet1!$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$2</definedName>
+    <definedName name="_Ref98503388" localSheetId="0">Sheet1!$F$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t>Import / Export</t>
   </si>
@@ -202,12 +202,6 @@
     <t>Aucotec</t>
   </si>
   <si>
-    <t>Signal line styles</t>
-  </si>
-  <si>
-    <t>show correct line style</t>
-  </si>
-  <si>
     <t>Intelligent Symbol</t>
   </si>
   <si>
@@ -220,28 +214,74 @@
     <t>topology needs to be checked and mapped</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>NOAKA</t>
-  </si>
-  <si>
-    <t>Drawing</t>
-  </si>
-  <si>
-    <t>Revision information &amp; Persistent ID for drawing control</t>
-  </si>
-  <si>
     <t>ComponentClassURI</t>
   </si>
   <si>
     <t>Missing ComponentClassURI for elements</t>
   </si>
   <si>
-    <t>File naming</t>
-  </si>
-  <si>
-    <t>What naming should we use for the example cases</t>
+    <t>Issue Number</t>
+  </si>
+  <si>
+    <t>Line styles</t>
+  </si>
+  <si>
+    <t>show correct line style for signal</t>
+  </si>
+  <si>
+    <t>Plant Structure</t>
+  </si>
+  <si>
+    <t>PlantArea (AreaIsa95) attribute names are not correct</t>
+  </si>
+  <si>
+    <t>PlantAreaIdentificationCodeAssignmentClass
+AreaIsa95NameAssignmentClass</t>
+  </si>
+  <si>
+    <t>Association type for the attribute ower: "is located in"
+Opposite association type: "is the location of"</t>
+  </si>
+  <si>
+    <t>PlantArea (AreaIsa95) should not have association 'is part of'</t>
+  </si>
+  <si>
+    <t>PlantArea (AreaIsa95) and ProcessPlant should have 'located in' association</t>
+  </si>
+  <si>
+    <t>PlantSystem items to  are missing from export</t>
+  </si>
+  <si>
+    <t>PlantSection (PlantSectionIso102092012) class not should not be exported.</t>
+  </si>
+  <si>
+    <t>Or please confirm why this is required ?</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Missing some attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaIsa95NameAssignmentClass
+DrawingSubTitleAssignmentClass
+</t>
+  </si>
+  <si>
+    <t>ProcessPlant ProcessPlantIdentificationCodeAssignmentClass should be set to 'D' in the example as this is represented on the tag names.</t>
+  </si>
+  <si>
+    <t>PlantAreaIdentificationCodeAssignmentClass not sure if this is set to a code value ?</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Nozzle count</t>
   </si>
 </sst>
 </file>
@@ -287,7 +327,218 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -597,548 +848,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="76" style="2" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="76" style="2" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>44721</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>44721</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>44721</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>44721</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>44721</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>44720</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>44720</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>44720</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>44720</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>44719</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>44720</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>44719</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>44719</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>44719</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>44721</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>44721</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>44722</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>44722</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>44722</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>44722</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>44722</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>44722</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44720</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="2" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>44722</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44720</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="2" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="1">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="1">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
